--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>8.591337822517293e-42</v>
+        <v>2.66822445331149e-45</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>7.700114384863051e-42</v>
+        <v>6.643370778100455e-45</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>7.849709137576642e-42</v>
+        <v>9.574915935674923e-45</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>9.309586959374833e-42</v>
+        <v>9.184749068422711e-45</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>1.053011101610937e-41</v>
+        <v>9.1213945895026e-45</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>1.829901161127888e-41</v>
+        <v>9.453931033408707e-45</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.554249307396826e-41</v>
+        <v>7.702982216279468e-45</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>6.351166773448807e-41</v>
+        <v>7.771522682114337e-45</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>9.29744648665529e-41</v>
+        <v>5.67596961441789e-45</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>8.44593337745057e-41</v>
+        <v>6.415223796631504e-45</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>5.819372291996869e-41</v>
+        <v>4.49541650930066e-45</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>2.573013988401867e-41</v>
+        <v>3.598611205785209e-45</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>1.892618275181303e-41</v>
+        <v>3.273178962939187e-47</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>2.312306243827661e-41</v>
+        <v>1.645298305699683e-47</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.792090693351916e-42</v>
+        <v>1.644085354964059e-47</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>6.709837437894816e-42</v>
+        <v>1.36352779762438e-47</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>3.519975816630179e-42</v>
+        <v>1.366895291111818e-47</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.512057218980254e-42</v>
+        <v>1.722737958178965e-47</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.116345779745662e-42</v>
+        <v>1.385384443540389e-47</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.064882086820822e-42</v>
+        <v>1.575091116126739e-47</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.15559071519753e-42</v>
+        <v>2.940231223983081e-47</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.3323514004145e-42</v>
+        <v>3.221727330400836e-47</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.18712000759303e-42</v>
+        <v>4.098220235391132e-47</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>2.269922113601842e-42</v>
+        <v>4.291233029181796e-47</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>3.123913874014564e-42</v>
+        <v>3.595250640137155e-47</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>6.290521437747222e-42</v>
+        <v>4.186952561552895e-47</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>1.296705375428742e-41</v>
+        <v>3.655364580190781e-47</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>1.052535112670032e-41</v>
+        <v>3.752385651858909e-47</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>4.723957660097193e-42</v>
+        <v>3.585649020749182e-47</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>2.027555404692301e-42</v>
+        <v>3.429760334672809e-47</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>8.344466511749022e-43</v>
+        <v>3.104300679976862e-47</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>7.137519752279636e-43</v>
+        <v>2.747676389247198e-47</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>4.110621612424644e-43</v>
+        <v>3.139888420577065e-47</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>3.019681458546197e-43</v>
+        <v>2.631199573211611e-47</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.752206052972342e-43</v>
+        <v>2.451049822529967e-47</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>1.813722913036363e-43</v>
+        <v>1.519842637655298e-47</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>3.198151370239836e-43</v>
+        <v>1.488065967991429e-47</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.453194557548058e-43</v>
+        <v>1.173569880171881e-47</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>5.338972821025034e-44</v>
+        <v>1.402174152803182e-47</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>3.803770180437524e-44</v>
+        <v>2.062317403857251e-47</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>2.346677115867259e-44</v>
+        <v>2.013819453833849e-47</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>2.032092348461474e-44</v>
+        <v>1.801419716523074e-47</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>2.478814147782849e-44</v>
+        <v>1.455182471296999e-47</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>5.190014096103695e-44</v>
+        <v>1.37495644892292e-47</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>5.425472018275219e-44</v>
+        <v>1.187231744501762e-47</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>5.086696756666252e-44</v>
+        <v>5.033828238611083e-48</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>4.783799173774851e-44</v>
+        <v>4.220478782796366e-48</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>3.854692320676412e-44</v>
+        <v>4.027746934125647e-48</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>2.7801363137899e-44</v>
+        <v>4.617659089804468e-48</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>1.724172904530909e-44</v>
+        <v>5.053548486929328e-48</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>1.29121748455553e-44</v>
+        <v>8.499208211374574e-48</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>1.164783594876469e-44</v>
+        <v>1.148005083458149e-47</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>1.105779790850846e-44</v>
+        <v>2.807079707806759e-47</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>9.784448175532997e-45</v>
+        <v>4.039897073519255e-47</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>8.133221751974853e-45</v>
+        <v>3.55197943103083e-47</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>6.397931453212715e-45</v>
+        <v>2.383079556263149e-47</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>6.227503661813114e-45</v>
+        <v>1.025549829469073e-47</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>6.417452870842075e-45</v>
+        <v>7.492181183003908e-48</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>8.063659629990634e-45</v>
+        <v>9.096633063026952e-48</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>8.710381882597579e-45</v>
+        <v>3.824825661305443e-48</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>9.561152798691459e-45</v>
+        <v>2.59690111026102e-48</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.054291701594849e-44</v>
+        <v>1.339999682518958e-48</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.052934938401991e-44</v>
+        <v>5.563817052664023e-49</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.147124506850027e-44</v>
+        <v>4.080972824975683e-49</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.161700289839799e-44</v>
+        <v>3.855549630137097e-49</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.095739347456416e-44</v>
+        <v>4.115247955679508e-49</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.082358314412305e-44</v>
+        <v>4.663999275948873e-49</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.000442174320562e-44</v>
+        <v>4.098486312685961e-49</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>9.387165759655227e-45</v>
+        <v>7.691227435615995e-49</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>8.680869484719736e-45</v>
+        <v>1.040440054511993e-48</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>8.338281266032967e-45</v>
+        <v>2.029665363043189e-48</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>7.499699796690035e-45</v>
+        <v>4.042191663466199e-48</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>7.04714736763067e-45</v>
+        <v>3.174459585843701e-48</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>4.755492651084924e-45</v>
+        <v>1.378697210904969e-48</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>3.969991910558874e-45</v>
+        <v>5.723334187327525e-49</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>3.049442968134443e-45</v>
+        <v>2.277123695978578e-49</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>1.949687563613308e-45</v>
+        <v>1.885925448215386e-49</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.60361587115069e-45</v>
+        <v>1.049842859086138e-49</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25330885271183e-45</v>
+        <v>7.467607705879165e-50</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.127376914799795e-45</v>
+        <v>4.258599315063565e-50</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.127561062113897e-45</v>
+        <v>4.338584096107762e-50</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.073775109242803e-45</v>
+        <v>7.400509869098305e-50</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>9.453811704780601e-46</v>
+        <v>3.145044908368013e-50</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>8.972620004171251e-46</v>
+        <v>1.117642997843268e-50</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>8.677595805380601e-46</v>
+        <v>7.708365969487355e-51</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>9.200982816174475e-46</v>
+        <v>4.448798718957532e-51</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>9.435521029960614e-46</v>
+        <v>3.605228380140367e-51</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>9.389400609113844e-46</v>
+        <v>4.115327474929948e-51</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>8.880855055290419e-46</v>
+        <v>8.469587983657933e-51</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>8.241834424795836e-46</v>
+        <v>8.745767477995335e-51</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>7.073947955393538e-46</v>
+        <v>7.901503129990031e-51</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>5.515968029510259e-46</v>
+        <v>7.309175841822974e-51</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>2.835330690056663e-46</v>
+        <v>5.789583624710619e-51</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>2.166585509357493e-46</v>
+        <v>4.040133689085295e-51</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.582551140348893e-46</v>
+        <v>2.425405159811543e-51</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.010224999207805e-46</v>
+        <v>1.756426039512841e-51</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>8.480023027316621e-47</v>
+        <v>1.573277875795567e-51</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.753351403758233e-47</v>
+        <v>1.47824338291827e-51</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>7.455599118316139e-47</v>
+        <v>1.287386969805779e-51</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>6.806225292595226e-47</v>
+        <v>1.035776318948734e-51</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>6.624106174972494e-47</v>
+        <v>7.621004837866762e-52</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>6.599265789925679e-47</v>
+        <v>7.028274976415165e-52</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>6.539422836088989e-47</v>
+        <v>6.696985067824218e-52</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>6.173311277550315e-47</v>
+        <v>8.139646571357366e-52</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>5.830241106158261e-47</v>
+        <v>8.49921830807464e-52</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>5.608951815819613e-47</v>
+        <v>9.029893737136036e-52</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>4.851633350911985e-47</v>
+        <v>9.754625985918547e-52</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>4.814670573420793e-47</v>
+        <v>9.612313607405452e-52</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>4.776807010771386e-47</v>
+        <v>1.024085048608116e-51</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>4.481787163769373e-47</v>
+        <v>1.003806855682466e-51</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>3.588672342292755e-47</v>
+        <v>9.358137656899942e-52</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>2.828335347415227e-47</v>
+        <v>9.046867909541635e-52</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>2.449469394304343e-47</v>
+        <v>8.221544227098997e-52</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>2.323258577915534e-47</v>
+        <v>7.640900249565295e-52</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>2.66844632576607e-47</v>
+        <v>6.993200187786812e-52</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>4.190004267825338e-47</v>
+        <v>6.669009529904441e-52</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>4.877477497143798e-47</v>
+        <v>5.943609767251526e-52</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>4.881734837091498e-47</v>
+        <v>5.551136628658519e-52</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>4.681980699715876e-47</v>
+        <v>3.622716164494576e-52</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>4.583843317787251e-47</v>
+        <v>2.97099737958889e-52</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>4.529049139418361e-47</v>
+        <v>2.247514559129935e-52</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>3.888631701190983e-47</v>
+        <v>1.390195279757732e-52</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>3.408691480784533e-47</v>
+        <v>1.123309421138814e-52</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>1.735820618174673e-47</v>
+        <v>8.63905328645268e-53</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>7.666940788429577e-48</v>
+        <v>7.696565886478502e-53</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>4.697307320250253e-48</v>
+        <v>7.694757729043107e-53</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>3.666444824245569e-48</v>
+        <v>7.280194465116423e-53</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>4.275009740519558e-48</v>
+        <v>6.304609582948062e-53</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>4.45247230475489e-48</v>
+        <v>5.923834897022251e-53</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>5.888598278422387e-48</v>
+        <v>5.68605434996345e-53</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>6.470008099270716e-48</v>
+        <v>5.975616742545885e-53</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>6.097642104015616e-48</v>
+        <v>6.064808512607528e-53</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>5.328448936864448e-48</v>
+        <v>5.979138506375075e-53</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>4.365184356808823e-48</v>
+        <v>5.594251674089976e-53</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>4.317721891589193e-48</v>
+        <v>5.143522483137537e-53</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>3.522502419710475e-48</v>
+        <v>4.339422439423333e-53</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>2.713097255754033e-48</v>
+        <v>3.329445970045484e-53</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>2.243794824361257e-48</v>
+        <v>1.655319528582838e-53</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>2.090269613797276e-48</v>
+        <v>1.243951602450423e-53</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>1.888100816567646e-48</v>
+        <v>8.949484035510697e-54</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>1.795153778902642e-48</v>
+        <v>5.531742064304439e-54</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>1.599330563038394e-48</v>
+        <v>4.554916904928117e-54</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>1.603338999222757e-48</v>
+        <v>4.113356052304281e-54</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.689660255391496e-48</v>
+        <v>3.915681779662569e-54</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>1.752227415889676e-48</v>
+        <v>3.549448537976544e-54</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>1.791900519664583e-48</v>
+        <v>3.441884229474569e-54</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>1.890122370715955e-48</v>
+        <v>3.423973207738583e-54</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>1.929979605250821e-48</v>
+        <v>3.389772501912173e-54</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>1.839246456856053e-48</v>
+        <v>3.177030413809536e-54</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>1.699013297627932e-48</v>
+        <v>2.980819301234566e-54</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>1.378559441978338e-48</v>
+        <v>2.848329941781529e-54</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>1.349283140116244e-48</v>
+        <v>2.448424077056937e-54</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>1.107700633996014e-48</v>
+        <v>2.419630359597722e-54</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.035232617258133e-48</v>
+        <v>2.394951467013777e-54</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>1.002609713641064e-48</v>
+        <v>2.224109594969662e-54</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.194163033874459e-48</v>
+        <v>1.751818845039156e-54</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>1.013153439377411e-48</v>
+        <v>1.358070464066741e-54</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>9.867872906845629e-49</v>
+        <v>1.157754705636151e-54</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>8.620190561383383e-49</v>
+        <v>1.092937265910044e-54</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>7.77171540371265e-49</v>
+        <v>1.239303748106174e-54</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>7.103914243208427e-49</v>
+        <v>1.913487497268427e-54</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>6.405009824819254e-49</v>
+        <v>2.207057431060838e-54</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>5.698168693826199e-49</v>
+        <v>2.186444610471873e-54</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>5.595837197091961e-49</v>
+        <v>2.074479824704199e-54</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>2.604411916390922e-49</v>
+        <v>2.017426128120747e-54</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>9.725726728851892e-50</v>
+        <v>1.986903192086048e-54</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>5.706815971438622e-50</v>
+        <v>1.671980962778579e-54</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>7.988659774238951e-50</v>
+        <v>1.454332279008996e-54</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>4.918403338972139e-50</v>
+        <v>7.148026509204823e-55</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>3.838812004616854e-50</v>
+        <v>2.956495467022885e-55</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>3.045580499581672e-50</v>
+        <v>1.693952785096718e-55</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>2.953202484530079e-50</v>
+        <v>1.237281653280642e-55</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>3.383485230844479e-50</v>
+        <v>1.398009235590769e-55</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>5.143281218343979e-50</v>
+        <v>1.438939760712642e-55</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>4.702977548988865e-50</v>
+        <v>1.858926828907051e-55</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>3.324955445728921e-50</v>
+        <v>1.9770361622844e-55</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>2.752087042927031e-50</v>
+        <v>1.831978395461983e-55</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.57484742865313e-55</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.269000723651752e-55</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.254952992324778e-55</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.007672878534967e-55</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.630001134982219e-56</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.202009856287893e-56</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.724590155051361e-56</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.090368650620916e-56</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.806962677805542e-56</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.24495493974441e-56</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.173762655910851e-56</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.331108467864706e-56</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.422846188879446e-56</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.444265694041339e-56</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.612710543987897e-56</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.629386962880483e-56</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.411308688407897e-56</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.013759147541938e-56</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.200247820754513e-56</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.130309883473257e-56</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.535866854167062e-56</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.359604859643475e-56</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.282821637870779e-56</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.687830515568633e-56</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.268711329744344e-56</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.178358472349245e-56</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.89077860252272e-56</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.693056000718723e-56</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.537490700234431e-56</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.376188176783985e-56</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.216255586872247e-56</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.188047732257765e-56</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.435694609640254e-57</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.994537435641222e-57</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.159403766714851e-57</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.620725097918807e-57</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9.961162409030584e-58</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>7.720682431448486e-58</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>6.046545027011646e-58</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.800814521102469e-58</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6.421994196094187e-58</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9.422489724518874e-58</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>8.32684055942745e-58</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.674991330489551e-58</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4.637585967549828e-58</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>2.66822445331149e-45</v>
+        <v>8.591337822517293e-42</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>6.643370778100455e-45</v>
+        <v>7.700114384863051e-42</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>9.574915935674923e-45</v>
+        <v>7.849709137576642e-42</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>9.184749068422711e-45</v>
+        <v>9.309586959374833e-42</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>9.1213945895026e-45</v>
+        <v>1.053011101610937e-41</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>9.453931033408707e-45</v>
+        <v>1.829901161127888e-41</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>7.702982216279468e-45</v>
+        <v>2.554249307396826e-41</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>7.771522682114337e-45</v>
+        <v>6.351166773448807e-41</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>5.67596961441789e-45</v>
+        <v>9.29744648665529e-41</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>6.415223796631504e-45</v>
+        <v>8.44593337745057e-41</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>4.49541650930066e-45</v>
+        <v>5.819372291996869e-41</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>3.598611205785209e-45</v>
+        <v>2.573013988401867e-41</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>3.273178962939187e-47</v>
+        <v>1.892618275181303e-41</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.645298305699683e-47</v>
+        <v>2.312306243827661e-41</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.644085354964059e-47</v>
+        <v>9.792090693351916e-42</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.36352779762438e-47</v>
+        <v>6.709837437894816e-42</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.366895291111818e-47</v>
+        <v>3.519975816630179e-42</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>1.722737958178965e-47</v>
+        <v>1.512057218980254e-42</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.385384443540389e-47</v>
+        <v>1.116345779745662e-42</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>1.575091116126739e-47</v>
+        <v>1.064882086820822e-42</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>2.940231223983081e-47</v>
+        <v>1.15559071519753e-42</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>3.221727330400836e-47</v>
+        <v>1.3323514004145e-42</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>4.098220235391132e-47</v>
+        <v>1.18712000759303e-42</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>4.291233029181796e-47</v>
+        <v>2.269922113601842e-42</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>3.595250640137155e-47</v>
+        <v>3.123913874014564e-42</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>4.186952561552895e-47</v>
+        <v>6.290521437747222e-42</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>3.655364580190781e-47</v>
+        <v>1.296705375428742e-41</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>3.752385651858909e-47</v>
+        <v>1.052535112670032e-41</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>3.585649020749182e-47</v>
+        <v>4.723957660097193e-42</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>3.429760334672809e-47</v>
+        <v>2.027555404692301e-42</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>3.104300679976862e-47</v>
+        <v>8.344466511749022e-43</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>2.747676389247198e-47</v>
+        <v>7.137519752279636e-43</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>3.139888420577065e-47</v>
+        <v>4.110621612424644e-43</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>2.631199573211611e-47</v>
+        <v>3.019681458546197e-43</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>2.451049822529967e-47</v>
+        <v>1.752206052972342e-43</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>1.519842637655298e-47</v>
+        <v>1.813722913036363e-43</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>1.488065967991429e-47</v>
+        <v>3.198151370239836e-43</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>1.173569880171881e-47</v>
+        <v>1.453194557548058e-43</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>1.402174152803182e-47</v>
+        <v>5.338972821025034e-44</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>2.062317403857251e-47</v>
+        <v>3.803770180437524e-44</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>2.013819453833849e-47</v>
+        <v>2.346677115867259e-44</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>1.801419716523074e-47</v>
+        <v>2.032092348461474e-44</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.455182471296999e-47</v>
+        <v>2.478814147782849e-44</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>1.37495644892292e-47</v>
+        <v>5.190014096103695e-44</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>1.187231744501762e-47</v>
+        <v>5.425472018275219e-44</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>5.033828238611083e-48</v>
+        <v>5.086696756666252e-44</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>4.220478782796366e-48</v>
+        <v>4.783799173774851e-44</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>4.027746934125647e-48</v>
+        <v>3.854692320676412e-44</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>4.617659089804468e-48</v>
+        <v>2.7801363137899e-44</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>5.053548486929328e-48</v>
+        <v>1.724172904530909e-44</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>8.499208211374574e-48</v>
+        <v>1.29121748455553e-44</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>1.148005083458149e-47</v>
+        <v>1.164783594876469e-44</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>2.807079707806759e-47</v>
+        <v>1.105779790850846e-44</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>4.039897073519255e-47</v>
+        <v>9.784448175532997e-45</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>3.55197943103083e-47</v>
+        <v>8.133221751974853e-45</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>2.383079556263149e-47</v>
+        <v>6.397931453212715e-45</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>1.025549829469073e-47</v>
+        <v>6.227503661813114e-45</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>7.492181183003908e-48</v>
+        <v>6.417452870842075e-45</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>9.096633063026952e-48</v>
+        <v>8.063659629990634e-45</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>3.824825661305443e-48</v>
+        <v>8.710381882597579e-45</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>2.59690111026102e-48</v>
+        <v>9.561152798691459e-45</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.339999682518958e-48</v>
+        <v>1.054291701594849e-44</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>5.563817052664023e-49</v>
+        <v>1.052934938401991e-44</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>4.080972824975683e-49</v>
+        <v>1.147124506850027e-44</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>3.855549630137097e-49</v>
+        <v>1.161700289839799e-44</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>4.115247955679508e-49</v>
+        <v>1.095739347456416e-44</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>4.663999275948873e-49</v>
+        <v>1.082358314412305e-44</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>4.098486312685961e-49</v>
+        <v>1.000442174320562e-44</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>7.691227435615995e-49</v>
+        <v>9.387165759655227e-45</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.040440054511993e-48</v>
+        <v>8.680869484719736e-45</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>2.029665363043189e-48</v>
+        <v>8.338281266032967e-45</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>4.042191663466199e-48</v>
+        <v>7.499699796690035e-45</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>3.174459585843701e-48</v>
+        <v>7.04714736763067e-45</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>1.378697210904969e-48</v>
+        <v>4.755492651084924e-45</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>5.723334187327525e-49</v>
+        <v>3.969991910558874e-45</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>2.277123695978578e-49</v>
+        <v>3.049442968134443e-45</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>1.885925448215386e-49</v>
+        <v>1.949687563613308e-45</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>1.049842859086138e-49</v>
+        <v>1.60361587115069e-45</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>7.467607705879165e-50</v>
+        <v>1.25330885271183e-45</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>4.258599315063565e-50</v>
+        <v>1.127376914799795e-45</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>4.338584096107762e-50</v>
+        <v>1.127561062113897e-45</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>7.400509869098305e-50</v>
+        <v>1.073775109242803e-45</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>3.145044908368013e-50</v>
+        <v>9.453811704780601e-46</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>1.117642997843268e-50</v>
+        <v>8.972620004171251e-46</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>7.708365969487355e-51</v>
+        <v>8.677595805380601e-46</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>4.448798718957532e-51</v>
+        <v>9.200982816174475e-46</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>3.605228380140367e-51</v>
+        <v>9.435521029960614e-46</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>4.115327474929948e-51</v>
+        <v>9.389400609113844e-46</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>8.469587983657933e-51</v>
+        <v>8.880855055290419e-46</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.745767477995335e-51</v>
+        <v>8.241834424795836e-46</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>7.901503129990031e-51</v>
+        <v>7.073947955393538e-46</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>7.309175841822974e-51</v>
+        <v>5.515968029510259e-46</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>5.789583624710619e-51</v>
+        <v>2.835330690056663e-46</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>4.040133689085295e-51</v>
+        <v>2.166585509357493e-46</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>2.425405159811543e-51</v>
+        <v>1.582551140348893e-46</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>1.756426039512841e-51</v>
+        <v>1.010224999207805e-46</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.573277875795567e-51</v>
+        <v>8.480023027316621e-47</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.47824338291827e-51</v>
+        <v>7.753351403758233e-47</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>1.287386969805779e-51</v>
+        <v>7.455599118316139e-47</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>1.035776318948734e-51</v>
+        <v>6.806225292595226e-47</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>7.621004837866762e-52</v>
+        <v>6.624106174972494e-47</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>7.028274976415165e-52</v>
+        <v>6.599265789925679e-47</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>6.696985067824218e-52</v>
+        <v>6.539422836088989e-47</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>8.139646571357366e-52</v>
+        <v>6.173311277550315e-47</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>8.49921830807464e-52</v>
+        <v>5.830241106158261e-47</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>9.029893737136036e-52</v>
+        <v>5.608951815819613e-47</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>9.754625985918547e-52</v>
+        <v>4.851633350911985e-47</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>9.612313607405452e-52</v>
+        <v>4.814670573420793e-47</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>1.024085048608116e-51</v>
+        <v>4.776807010771386e-47</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>1.003806855682466e-51</v>
+        <v>4.481787163769373e-47</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>9.358137656899942e-52</v>
+        <v>3.588672342292755e-47</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>9.046867909541635e-52</v>
+        <v>2.828335347415227e-47</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>8.221544227098997e-52</v>
+        <v>2.449469394304343e-47</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>7.640900249565295e-52</v>
+        <v>2.323258577915534e-47</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>6.993200187786812e-52</v>
+        <v>2.66844632576607e-47</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>6.669009529904441e-52</v>
+        <v>4.190004267825338e-47</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>5.943609767251526e-52</v>
+        <v>4.877477497143798e-47</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>5.551136628658519e-52</v>
+        <v>4.881734837091498e-47</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>3.622716164494576e-52</v>
+        <v>4.681980699715876e-47</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>2.97099737958889e-52</v>
+        <v>4.583843317787251e-47</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>2.247514559129935e-52</v>
+        <v>4.529049139418361e-47</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>1.390195279757732e-52</v>
+        <v>3.888631701190983e-47</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>1.123309421138814e-52</v>
+        <v>3.408691480784533e-47</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>8.63905328645268e-53</v>
+        <v>1.735820618174673e-47</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>7.696565886478502e-53</v>
+        <v>7.666940788429577e-48</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>7.694757729043107e-53</v>
+        <v>4.697307320250253e-48</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>7.280194465116423e-53</v>
+        <v>3.666444824245569e-48</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>6.304609582948062e-53</v>
+        <v>4.275009740519558e-48</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>5.923834897022251e-53</v>
+        <v>4.45247230475489e-48</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>5.68605434996345e-53</v>
+        <v>5.888598278422387e-48</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>5.975616742545885e-53</v>
+        <v>6.470008099270716e-48</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>6.064808512607528e-53</v>
+        <v>6.097642104015616e-48</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>5.979138506375075e-53</v>
+        <v>5.328448936864448e-48</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>5.594251674089976e-53</v>
+        <v>4.365184356808823e-48</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>5.143522483137537e-53</v>
+        <v>4.317721891589193e-48</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>4.339422439423333e-53</v>
+        <v>3.522502419710475e-48</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>3.329445970045484e-53</v>
+        <v>2.713097255754033e-48</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.655319528582838e-53</v>
+        <v>2.243794824361257e-48</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>1.243951602450423e-53</v>
+        <v>2.090269613797276e-48</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>8.949484035510697e-54</v>
+        <v>1.888100816567646e-48</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>5.531742064304439e-54</v>
+        <v>1.795153778902642e-48</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>4.554916904928117e-54</v>
+        <v>1.599330563038394e-48</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>4.113356052304281e-54</v>
+        <v>1.603338999222757e-48</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>3.915681779662569e-54</v>
+        <v>1.689660255391496e-48</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>3.549448537976544e-54</v>
+        <v>1.752227415889676e-48</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>3.441884229474569e-54</v>
+        <v>1.791900519664583e-48</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>3.423973207738583e-54</v>
+        <v>1.890122370715955e-48</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>3.389772501912173e-54</v>
+        <v>1.929979605250821e-48</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>3.177030413809536e-54</v>
+        <v>1.839246456856053e-48</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>2.980819301234566e-54</v>
+        <v>1.699013297627932e-48</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>2.848329941781529e-54</v>
+        <v>1.378559441978338e-48</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>2.448424077056937e-54</v>
+        <v>1.349283140116244e-48</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>2.419630359597722e-54</v>
+        <v>1.107700633996014e-48</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>2.394951467013777e-54</v>
+        <v>1.035232617258133e-48</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>2.224109594969662e-54</v>
+        <v>1.002609713641064e-48</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>1.751818845039156e-54</v>
+        <v>1.194163033874459e-48</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>1.358070464066741e-54</v>
+        <v>1.013153439377411e-48</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.157754705636151e-54</v>
+        <v>9.867872906845629e-49</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>1.092937265910044e-54</v>
+        <v>8.620190561383383e-49</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>1.239303748106174e-54</v>
+        <v>7.77171540371265e-49</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>1.913487497268427e-54</v>
+        <v>7.103914243208427e-49</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>2.207057431060838e-54</v>
+        <v>6.405009824819254e-49</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>2.186444610471873e-54</v>
+        <v>5.698168693826199e-49</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>2.074479824704199e-54</v>
+        <v>5.595837197091961e-49</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>2.017426128120747e-54</v>
+        <v>2.604411916390922e-49</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>1.986903192086048e-54</v>
+        <v>9.725726728851892e-50</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>1.671980962778579e-54</v>
+        <v>5.706815971438622e-50</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.454332279008996e-54</v>
+        <v>7.988659774238951e-50</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>7.148026509204823e-55</v>
+        <v>4.918403338972139e-50</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>2.956495467022885e-55</v>
+        <v>3.838812004616854e-50</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.693952785096718e-55</v>
+        <v>3.045580499581672e-50</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.237281653280642e-55</v>
+        <v>2.953202484530079e-50</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>1.398009235590769e-55</v>
+        <v>3.383485230844479e-50</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>1.438939760712642e-55</v>
+        <v>5.143281218343979e-50</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>1.858926828907051e-55</v>
+        <v>4.702977548988865e-50</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>1.9770361622844e-55</v>
+        <v>3.324955445728921e-50</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>1.831978395461983e-55</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.57484742865313e-55</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.269000723651752e-55</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.254952992324778e-55</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.007672878534967e-55</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>7.630001134982219e-56</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.202009856287893e-56</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.724590155051361e-56</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.090368650620916e-56</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.806962677805542e-56</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.24495493974441e-56</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.173762655910851e-56</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.331108467864706e-56</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4.422846188879446e-56</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.444265694041339e-56</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.612710543987897e-56</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.629386962880483e-56</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.411308688407897e-56</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.013759147541938e-56</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.200247820754513e-56</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.130309883473257e-56</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.535866854167062e-56</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.359604859643475e-56</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.282821637870779e-56</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.687830515568633e-56</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.268711329744344e-56</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.178358472349245e-56</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.89077860252272e-56</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.693056000718723e-56</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.537490700234431e-56</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.376188176783985e-56</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.216255586872247e-56</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.188047732257765e-56</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.435694609640254e-57</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.994537435641222e-57</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.159403766714851e-57</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.620725097918807e-57</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>9.961162409030584e-58</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>7.720682431448486e-58</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>6.046545027011646e-58</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.800814521102469e-58</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>6.421994196094187e-58</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>9.422489724518874e-58</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>8.32684055942745e-58</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5.674991330489551e-58</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4.637585967549828e-58</v>
+        <v>2.752087042927031e-50</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>8.591337822517293e-42</v>
+        <v>4.176248631088236e-27</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>7.700114384863051e-42</v>
+        <v>6.476008951604193e-27</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>7.849709137576642e-42</v>
+        <v>8.700942955548781e-27</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>9.309586959374833e-42</v>
+        <v>7.973093005072936e-27</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>1.053011101610937e-41</v>
+        <v>9.371847987099697e-27</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>1.829901161127888e-41</v>
+        <v>8.765587585111027e-27</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.554249307396826e-41</v>
+        <v>7.601259605000653e-27</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>6.351166773448807e-41</v>
+        <v>7.598510983619802e-27</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>9.29744648665529e-41</v>
+        <v>5.296719140258671e-27</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>8.44593337745057e-41</v>
+        <v>6.003994756594947e-27</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>5.819372291996869e-41</v>
+        <v>6.014197104837597e-27</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>2.573013988401867e-41</v>
+        <v>3.456766978140151e-27</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>1.892618275181303e-41</v>
+        <v>3.010315101230467e-29</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>2.312306243827661e-41</v>
+        <v>1.49821240629683e-29</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9.792090693351916e-42</v>
+        <v>1.578706777450847e-29</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>6.709837437894816e-42</v>
+        <v>1.278162293117633e-29</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>3.519975816630179e-42</v>
+        <v>1.294402707316054e-29</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>1.512057218980254e-42</v>
+        <v>1.606102557353548e-29</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.116345779745662e-42</v>
+        <v>1.298264065225816e-29</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.064882086820822e-42</v>
+        <v>1.512668786820248e-29</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.15559071519753e-42</v>
+        <v>2.672244715060315e-29</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>1.3323514004145e-42</v>
+        <v>3.04959237942743e-29</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1.18712000759303e-42</v>
+        <v>4.081072086625831e-29</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>2.269922113601842e-42</v>
+        <v>4.139958615804066e-29</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>3.123913874014564e-42</v>
+        <v>3.726223472984425e-29</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>6.290521437747222e-42</v>
+        <v>3.925845683369596e-29</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>1.296705375428742e-41</v>
+        <v>3.672788890804726e-29</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>1.052535112670032e-41</v>
+        <v>3.586452508273536e-29</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>4.723957660097193e-42</v>
+        <v>3.431220484764616e-29</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>2.027555404692301e-42</v>
+        <v>3.338913995240891e-29</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>8.344466511749022e-43</v>
+        <v>2.994515999051722e-29</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>7.137519752279636e-43</v>
+        <v>2.699767647257081e-29</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>4.110621612424644e-43</v>
+        <v>2.924988202364497e-29</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>3.019681458546197e-43</v>
+        <v>2.491547457207972e-29</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.752206052972342e-43</v>
+        <v>2.290920779252759e-29</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>1.813722913036363e-43</v>
+        <v>1.470990854776602e-29</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>3.198151370239836e-43</v>
+        <v>1.401612657044695e-29</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.453194557548058e-43</v>
+        <v>1.267951029062782e-29</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>5.338972821025034e-44</v>
+        <v>1.325644094572575e-29</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>3.803770180437524e-44</v>
+        <v>1.932301047502021e-29</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>2.346677115867259e-44</v>
+        <v>1.901766954952999e-29</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>2.032092348461474e-44</v>
+        <v>1.67577571701054e-29</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>2.478814147782849e-44</v>
+        <v>1.359826673136966e-29</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>5.190014096103695e-44</v>
+        <v>1.277713530312802e-29</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>5.425472018275219e-44</v>
+        <v>1.110365289240668e-29</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>5.086696756666252e-44</v>
+        <v>4.667475669657494e-30</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>4.783799173774851e-44</v>
+        <v>3.945300690487613e-30</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>3.854692320676412e-44</v>
+        <v>3.747044266139677e-30</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>2.7801363137899e-44</v>
+        <v>4.323160203148347e-30</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>1.724172904530909e-44</v>
+        <v>4.72327844946187e-30</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>1.29121748455553e-44</v>
+        <v>7.911283456428071e-30</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>1.164783594876469e-44</v>
+        <v>1.068596329770583e-29</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>1.105779790850846e-44</v>
+        <v>2.621318629175922e-29</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>9.784448175532997e-45</v>
+        <v>3.768849182048107e-29</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>8.133221751974853e-45</v>
+        <v>3.309048007768221e-29</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>6.397931453212715e-45</v>
+        <v>2.22110043869586e-29</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>6.227503661813114e-45</v>
+        <v>9.579826482836896e-30</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>6.417452870842075e-45</v>
+        <v>7.004698837004132e-30</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>8.063659629990634e-45</v>
+        <v>8.487364605894418e-30</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>8.710381882597579e-45</v>
+        <v>3.56430042065682e-30</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>9.561152798691459e-45</v>
+        <v>2.413913080973678e-30</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.054291701594849e-44</v>
+        <v>1.243033843774032e-30</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>1.052934938401991e-44</v>
+        <v>5.191434283382951e-31</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.147124506850027e-44</v>
+        <v>3.813550859095015e-31</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.161700289839799e-44</v>
+        <v>3.630631687432955e-31</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.095739347456416e-44</v>
+        <v>3.832539368332044e-31</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.082358314412305e-44</v>
+        <v>4.450195254853179e-31</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.000442174320562e-44</v>
+        <v>3.922969999579648e-31</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>9.387165759655227e-45</v>
+        <v>7.02170971000663e-31</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>8.680869484719736e-45</v>
+        <v>9.835724327255416e-31</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>8.338281266032967e-45</v>
+        <v>1.894223497969561e-30</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>7.499699796690035e-45</v>
+        <v>3.771293756097471e-30</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>7.04714736763067e-45</v>
+        <v>2.963515557408259e-30</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>4.755492651084924e-45</v>
+        <v>1.285761774466126e-30</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>3.969991910558874e-45</v>
+        <v>5.365649301434909e-31</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>3.049442968134443e-45</v>
+        <v>2.123903463212631e-31</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>1.949687563613308e-45</v>
+        <v>1.765686053629727e-31</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.60361587115069e-45</v>
+        <v>9.991503379703391e-32</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25330885271183e-45</v>
+        <v>6.962724677084992e-32</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.127376914799795e-45</v>
+        <v>3.962996316637787e-32</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.127561062113897e-45</v>
+        <v>4.042012664378686e-32</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.073775109242803e-45</v>
+        <v>6.889550170019194e-32</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>9.453811704780601e-46</v>
+        <v>2.926929367786215e-32</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>8.972620004171251e-46</v>
+        <v>1.038559036907231e-32</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>8.677595805380601e-46</v>
+        <v>7.179167401375463e-33</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>9.200982816174475e-46</v>
+        <v>4.15111404538402e-33</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>9.435521029960614e-46</v>
+        <v>3.335557698932447e-33</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>9.389400609113844e-46</v>
+        <v>3.837404887361797e-33</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>8.880855055290419e-46</v>
+        <v>7.884676201626171e-33</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>8.241834424795836e-46</v>
+        <v>8.133947876941797e-33</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>7.073947955393538e-46</v>
+        <v>7.380415989383492e-33</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>5.515968029510259e-46</v>
+        <v>6.799700130228419e-33</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>2.835330690056663e-46</v>
+        <v>5.374366805232216e-33</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>2.166585509357493e-46</v>
+        <v>3.769900614350496e-33</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>1.582551140348893e-46</v>
+        <v>2.259055336243513e-33</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>1.010224999207805e-46</v>
+        <v>1.640195511580991e-33</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>8.480023027316621e-47</v>
+        <v>1.470030705969095e-33</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.753351403758233e-47</v>
+        <v>1.367737122279498e-33</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>7.455599118316139e-47</v>
+        <v>1.202807597166943e-33</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>6.806225292595226e-47</v>
+        <v>9.643606833496142e-34</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>6.624106174972494e-47</v>
+        <v>7.101476239226803e-34</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>6.599265789925679e-47</v>
+        <v>6.559242921452202e-34</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>6.539422836088989e-47</v>
+        <v>6.241172826736697e-34</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>6.173311277550315e-47</v>
+        <v>7.580116260804452e-34</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>5.830241106158261e-47</v>
+        <v>7.92308630670327e-34</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>5.608951815819613e-47</v>
+        <v>8.407552106357813e-34</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>4.851633350911985e-47</v>
+        <v>9.090993720481656e-34</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>4.814670573420793e-47</v>
+        <v>8.955165280877369e-34</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>4.776807010771386e-47</v>
+        <v>9.553295041674518e-34</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>4.481787163769373e-47</v>
+        <v>9.355642398739726e-34</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>3.588672342292755e-47</v>
+        <v>8.72048288805894e-34</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>2.828335347415227e-47</v>
+        <v>8.424268650715151e-34</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>2.449469394304343e-47</v>
+        <v>7.658504546709057e-34</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>2.323258577915534e-47</v>
+        <v>7.119590843968115e-34</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>2.66844632576607e-47</v>
+        <v>6.517285931937687e-34</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>4.190004267825338e-47</v>
+        <v>6.204954411539916e-34</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>4.877477497143798e-47</v>
+        <v>5.53630206130611e-34</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>4.881734837091498e-47</v>
+        <v>5.172518847829634e-34</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>4.681980699715876e-47</v>
+        <v>3.375065211827503e-34</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>4.583843317787251e-47</v>
+        <v>2.76643052623568e-34</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>4.529049139418361e-47</v>
+        <v>2.096329575009681e-34</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>3.888631701190983e-47</v>
+        <v>1.294994255169756e-34</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>3.408691480784533e-47</v>
+        <v>1.046236311298257e-34</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.735820618174673e-47</v>
+        <v>8.058976501971924e-35</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>7.666940788429577e-48</v>
+        <v>7.17256241773327e-35</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>4.697307320250253e-48</v>
+        <v>7.175321322717379e-35</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>3.666444824245569e-48</v>
+        <v>6.798783983630846e-35</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>4.275009740519558e-48</v>
+        <v>5.875757476558242e-35</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>4.45247230475489e-48</v>
+        <v>5.529702014603593e-35</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>5.888598278422387e-48</v>
+        <v>5.293650262787956e-35</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>6.470008099270716e-48</v>
+        <v>5.568721361268997e-35</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>6.097642104015616e-48</v>
+        <v>5.647024308711296e-35</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>5.328448936864448e-48</v>
+        <v>5.567329290775106e-35</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>4.365184356808823e-48</v>
+        <v>5.218513299344697e-35</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>4.317721891589193e-48</v>
+        <v>4.787858196023613e-35</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>3.522502419710475e-48</v>
+        <v>4.040980206548294e-35</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>2.713097255754033e-48</v>
+        <v>3.103898699102953e-35</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>2.243794824361257e-48</v>
+        <v>1.541516403209289e-35</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>2.090269613797276e-48</v>
+        <v>1.155531681205491e-35</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>1.888100816567646e-48</v>
+        <v>8.35040700789438e-36</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>1.795153778902642e-48</v>
+        <v>5.162915693587002e-36</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>1.599330563038394e-48</v>
+        <v>4.23645648164001e-36</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>1.603338999222757e-48</v>
+        <v>3.812132303104216e-36</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>1.689660255391496e-48</v>
+        <v>3.644768238192953e-36</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>1.752227415889676e-48</v>
+        <v>3.307353138864847e-36</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>1.791900519664583e-48</v>
+        <v>3.223391766669505e-36</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>1.890122370715955e-48</v>
+        <v>3.195701693984589e-36</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>1.929979605250821e-48</v>
+        <v>3.161254745419019e-36</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>1.839246456856053e-48</v>
+        <v>2.957995019078689e-36</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>1.699013297627932e-48</v>
+        <v>2.764806657175322e-36</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>1.378559441978338e-48</v>
+        <v>2.642739169091341e-36</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>1.349283140116244e-48</v>
+        <v>2.291627366523756e-36</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>1.107700633996014e-48</v>
+        <v>2.252477475068232e-36</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.035232617258133e-48</v>
+        <v>2.237321871635723e-36</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>1.002609713641064e-48</v>
+        <v>2.072048744219758e-36</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.194163033874459e-48</v>
+        <v>1.633533596767874e-36</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>1.013153439377411e-48</v>
+        <v>1.273476389316442e-36</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>9.867872906845629e-49</v>
+        <v>1.077277645748259e-36</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>8.620190561383383e-49</v>
+        <v>1.017087815043267e-36</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>7.77171540371265e-49</v>
+        <v>1.151956660356324e-36</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>7.103914243208427e-49</v>
+        <v>1.793861612233248e-36</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>6.405009824819254e-49</v>
+        <v>2.051511624552603e-36</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>5.698168693826199e-49</v>
+        <v>2.036078103122636e-36</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>5.595837197091961e-49</v>
+        <v>1.928031131664731e-36</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>2.604411916390922e-49</v>
+        <v>1.876808983251404e-36</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>9.725726728851892e-50</v>
+        <v>1.850944509922561e-36</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>5.706815971438622e-50</v>
+        <v>1.555671281283395e-36</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>7.988659774238951e-50</v>
+        <v>1.356932918123936e-36</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>4.918403338972139e-50</v>
+        <v>6.658857219928632e-37</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>3.838812004616854e-50</v>
+        <v>2.75186332382777e-37</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>3.045580499581672e-50</v>
+        <v>1.579693459806879e-37</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>2.953202484530079e-50</v>
+        <v>1.154073704829479e-37</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>3.383485230844479e-50</v>
+        <v>1.305738712131149e-37</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>5.143281218343979e-50</v>
+        <v>1.337024567815848e-37</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>4.702977548988865e-50</v>
+        <v>1.72637796329617e-37</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>3.324955445728921e-50</v>
+        <v>1.852112692748198e-37</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>2.752087042927031e-50</v>
+        <v>1.705031935671203e-37</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.466473041603069e-37</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.179476791790306e-37</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.169159756287864e-37</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9.388553723541062e-38</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.101380808555566e-38</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.794387923064357e-38</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.374574175017356e-38</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.756850220171953e-38</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.488334123043174e-38</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.972529801285436e-38</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.898004632360745e-38</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.046889737113971e-38</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.123507749011281e-38</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.132666622471858e-38</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.293142472854166e-38</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.315948660695571e-38</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.111124094238076e-38</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.730495824219344e-38</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.983162347149778e-38</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.917086231688182e-38</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.366667042054595e-38</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.201506114160403e-38</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.130276663489715e-38</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.504701780508525e-38</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.112640884286447e-38</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.023949103815183e-38</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.762244274255753e-38</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.578203781869814e-38</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.432396762354592e-38</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.279365651802743e-38</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.132685066321293e-38</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.109214795541014e-38</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.079320799143338e-39</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.856241185309495e-39</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.07883030752276e-39</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.509969038961012e-39</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9.277571314633137e-40</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>7.178409319734759e-40</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.582953363394111e-40</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.291294750901971e-40</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.995758937259358e-40</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>8.762854473734424e-40</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7.746017097402677e-40</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.282433440267593e-40</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4.311306898535352e-40</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>4.176248631088236e-27</v>
+        <v>7.864904867058549e-42</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>6.476008951604193e-27</v>
+        <v>6.833552847203666e-42</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>8.700942955548781e-27</v>
+        <v>6.915222386329511e-42</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>7.973093005072936e-27</v>
+        <v>8.320714389489071e-42</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>9.371847987099697e-27</v>
+        <v>9.38595880476049e-42</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>8.765587585111027e-27</v>
+        <v>1.588198792531735e-41</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>7.601259605000653e-27</v>
+        <v>2.220222826197681e-41</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7.598510983619802e-27</v>
+        <v>5.422079186366336e-41</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>5.296719140258671e-27</v>
+        <v>7.913405887768119e-41</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>6.003994756594947e-27</v>
+        <v>7.220267042489437e-41</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>6.014197104837597e-27</v>
+        <v>4.959195867962283e-41</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>3.456766978140151e-27</v>
+        <v>2.190996752201395e-41</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>3.010315101230467e-29</v>
+        <v>1.624507092981447e-41</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1.49821240629683e-29</v>
+        <v>1.980559219991075e-41</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.578706777450847e-29</v>
+        <v>8.50753120140322e-42</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.278162293117633e-29</v>
+        <v>5.719594758016029e-42</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.294402707316054e-29</v>
+        <v>3.03828282664727e-42</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.606102557353548e-29</v>
+        <v>1.358515662408435e-42</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.298264065225816e-29</v>
+        <v>1.000047932942795e-42</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.512668786820248e-29</v>
+        <v>9.431638337000803e-43</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.672244715060315e-29</v>
+        <v>1.053968821080251e-42</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>3.04959237942743e-29</v>
+        <v>1.200038451107182e-42</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>4.081072086625831e-29</v>
+        <v>1.067108760376763e-42</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>4.139958615804066e-29</v>
+        <v>1.973478362127718e-42</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>3.726223472984425e-29</v>
+        <v>2.788120112173282e-42</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>3.925845683369596e-29</v>
+        <v>5.38509815146042e-42</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>3.672788890804726e-29</v>
+        <v>1.118595538427909e-41</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.586452508273536e-29</v>
+        <v>9.131030291204521e-42</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>3.431220484764616e-29</v>
+        <v>4.021413647357677e-42</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3.338913995240891e-29</v>
+        <v>1.755197585570206e-42</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>2.994515999051722e-29</v>
+        <v>7.267408637592813e-43</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>2.699767647257081e-29</v>
+        <v>6.146550534070711e-43</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>2.924988202364497e-29</v>
+        <v>3.469641154973145e-43</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>2.491547457207972e-29</v>
+        <v>2.681838300183166e-43</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>2.290920779252759e-29</v>
+        <v>1.45774893287711e-43</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.470990854776602e-29</v>
+        <v>1.601385864321134e-43</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.401612657044695e-29</v>
+        <v>2.809915575152753e-43</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.267951029062782e-29</v>
+        <v>1.272750503659919e-43</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.325644094572575e-29</v>
+        <v>4.700646493362643e-44</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.932301047502021e-29</v>
+        <v>3.49156114837818e-44</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.901766954952999e-29</v>
+        <v>2.119445712720845e-44</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.67577571701054e-29</v>
+        <v>1.756592752467032e-44</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.359826673136966e-29</v>
+        <v>2.208480504348821e-44</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.277713530312802e-29</v>
+        <v>4.512644693570156e-44</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.110365289240668e-29</v>
+        <v>4.72384213891294e-44</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>4.667475669657494e-30</v>
+        <v>4.448804783939158e-44</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>3.945300690487613e-30</v>
+        <v>4.137795103570371e-44</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>3.747044266139677e-30</v>
+        <v>3.301944343308253e-44</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>4.323160203148347e-30</v>
+        <v>2.431880704703978e-44</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>4.72327844946187e-30</v>
+        <v>1.517674858717142e-44</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>7.911283456428071e-30</v>
+        <v>1.153521017594839e-44</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1.068596329770583e-29</v>
+        <v>1.028882872976231e-44</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>2.621318629175922e-29</v>
+        <v>9.668782106721249e-45</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>3.768849182048107e-29</v>
+        <v>8.610946417036477e-45</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>3.309048007768221e-29</v>
+        <v>7.118072474282903e-45</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>2.22110043869586e-29</v>
+        <v>5.602911397231485e-45</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>9.579826482836896e-30</v>
+        <v>5.465245264677441e-45</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>7.004698837004132e-30</v>
+        <v>5.587187495166458e-45</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>8.487364605894418e-30</v>
+        <v>6.907193809755434e-45</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>3.56430042065682e-30</v>
+        <v>7.495070287286018e-45</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2.413913080973678e-30</v>
+        <v>8.182336259687172e-45</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.243033843774032e-30</v>
+        <v>9.011810673342116e-45</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>5.191434283382951e-31</v>
+        <v>8.991584634468184e-45</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>3.813550859095015e-31</v>
+        <v>9.821804069087383e-45</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>3.630631687432955e-31</v>
+        <v>9.914807244145554e-45</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>3.832539368332044e-31</v>
+        <v>9.354323662845885e-45</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>4.450195254853179e-31</v>
+        <v>9.210645470070926e-45</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>3.922969999579648e-31</v>
+        <v>8.523991185087296e-45</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>7.02170971000663e-31</v>
+        <v>8.01844551478008e-45</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>9.835724327255416e-31</v>
+        <v>7.402934557753055e-45</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.894223497969561e-30</v>
+        <v>7.098406299322914e-45</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>3.771293756097471e-30</v>
+        <v>6.382705181606205e-45</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>2.963515557408259e-30</v>
+        <v>6.014911446716041e-45</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>1.285761774466126e-30</v>
+        <v>4.060288908971226e-45</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.365649301434909e-31</v>
+        <v>3.390366552371632e-45</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>2.123903463212631e-31</v>
+        <v>2.606100167298603e-45</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.765686053629727e-31</v>
+        <v>1.666300238995226e-45</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>9.991503379703391e-32</v>
+        <v>1.37208649232202e-45</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>6.962724677084992e-32</v>
+        <v>1.076811202117374e-45</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>3.962996316637787e-32</v>
+        <v>9.672891139781667e-46</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>4.042012664378686e-32</v>
+        <v>9.682926116193279e-46</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>6.889550170019194e-32</v>
+        <v>9.244464759033907e-46</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>2.926929367786215e-32</v>
+        <v>8.107701459139435e-46</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.038559036907231e-32</v>
+        <v>7.719605426720422e-46</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>7.179167401375463e-33</v>
+        <v>7.468986530263375e-46</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>4.15111404538402e-33</v>
+        <v>7.857408005135867e-46</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>3.335557698932447e-33</v>
+        <v>8.084011614935928e-46</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>3.837404887361797e-33</v>
+        <v>8.038455533998329e-46</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>7.884676201626171e-33</v>
+        <v>7.628788510929249e-46</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>8.133947876941797e-33</v>
+        <v>7.040780413949381e-46</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>7.380415989383492e-33</v>
+        <v>6.042231644337869e-46</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>6.799700130228419e-33</v>
+        <v>4.737351400242853e-46</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>5.374366805232216e-33</v>
+        <v>2.438312923313845e-46</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>3.769900614350496e-33</v>
+        <v>1.861952564867602e-46</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>2.259055336243513e-33</v>
+        <v>1.376396701357115e-46</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.640195511580991e-33</v>
+        <v>8.811035188852631e-47</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.470030705969095e-33</v>
+        <v>7.420416662446525e-47</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.367737122279498e-33</v>
+        <v>6.776127486345758e-47</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.202807597166943e-33</v>
+        <v>6.527701791875239e-47</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>9.643606833496142e-34</v>
+        <v>5.953217487918464e-47</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>7.101476239226803e-34</v>
+        <v>5.819883755696371e-47</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>6.559242921452202e-34</v>
+        <v>5.819294826617497e-47</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>6.241172826736697e-34</v>
+        <v>5.713364938100219e-47</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>7.580116260804452e-34</v>
+        <v>5.36444591409321e-47</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>7.92308630670327e-34</v>
+        <v>5.02628285471307e-47</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>8.407552106357813e-34</v>
+        <v>4.770388896900456e-47</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>9.090993720481656e-34</v>
+        <v>4.313168641389961e-47</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>8.955165280877369e-34</v>
+        <v>4.241948390659734e-47</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>9.553295041674518e-34</v>
+        <v>4.251675865965854e-47</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>9.355642398739726e-34</v>
+        <v>3.964600023029932e-47</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>8.72048288805894e-34</v>
+        <v>3.172445140755299e-47</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>8.424268650715151e-34</v>
+        <v>2.533401101718232e-47</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>7.658504546709057e-34</v>
+        <v>2.177254654095088e-47</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>7.119590843968115e-34</v>
+        <v>2.05787190706683e-47</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>6.517285931937687e-34</v>
+        <v>2.384498547689942e-47</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>6.204954411539916e-34</v>
+        <v>3.697208975604507e-47</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>5.53630206130611e-34</v>
+        <v>4.228976556086263e-47</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>5.172518847829634e-34</v>
+        <v>4.254218068537622e-47</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>3.375065211827503e-34</v>
+        <v>4.051321496569609e-47</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.76643052623568e-34</v>
+        <v>4.006557597426891e-47</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2.096329575009681e-34</v>
+        <v>3.943906857103742e-47</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>1.294994255169756e-34</v>
+        <v>3.374843267572367e-47</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.046236311298257e-34</v>
+        <v>2.974692896826918e-47</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>8.058976501971924e-35</v>
+        <v>1.520927863745127e-47</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>7.17256241773327e-35</v>
+        <v>6.755761168106798e-48</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>7.175321322717379e-35</v>
+        <v>4.195416640162086e-48</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>6.798783983630846e-35</v>
+        <v>3.223239416033288e-48</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>5.875757476558242e-35</v>
+        <v>3.774952006088699e-48</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>5.529702014603593e-35</v>
+        <v>3.90447043072002e-48</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>5.293650262787956e-35</v>
+        <v>5.117241226738641e-48</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>5.568721361268997e-35</v>
+        <v>5.611628561402687e-48</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>5.647024308711296e-35</v>
+        <v>5.322687309063081e-48</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>5.567329290775106e-35</v>
+        <v>4.617203158101789e-48</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>5.218513299344697e-35</v>
+        <v>3.748064362569933e-48</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>4.787858196023613e-35</v>
+        <v>3.036985622401982e-48</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>4.040980206548294e-35</v>
+        <v>2.3392456661379e-48</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>3.103898699102953e-35</v>
+        <v>1.959894827672349e-48</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>1.541516403209289e-35</v>
+        <v>1.855647546285665e-48</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>1.155531681205491e-35</v>
+        <v>1.625381125800867e-48</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>8.35040700789438e-36</v>
+        <v>1.55950727479841e-48</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>5.162915693587002e-36</v>
+        <v>1.429583183414193e-48</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>4.23645648164001e-36</v>
+        <v>1.408792888976902e-48</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>3.812132303104216e-36</v>
+        <v>1.479520363233641e-48</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>3.644768238192953e-36</v>
+        <v>1.523135584811703e-48</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>3.307353138864847e-36</v>
+        <v>1.553709065727033e-48</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>3.223391766669505e-36</v>
+        <v>1.629706637351184e-48</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>3.195701693984589e-36</v>
+        <v>1.625855687496038e-48</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>3.161254745419019e-36</v>
+        <v>1.455155562089135e-48</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>2.957995019078689e-36</v>
+        <v>1.190578966324694e-48</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>2.764806657175322e-36</v>
+        <v>1.1660755892313e-48</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>2.642739169091341e-36</v>
+        <v>9.604787224514269e-49</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>2.291627366523756e-36</v>
+        <v>8.969179286540059e-49</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2.252477475068232e-36</v>
+        <v>8.701695978092121e-49</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>2.237321871635723e-36</v>
+        <v>1.027491770674222e-48</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>2.072048744219758e-36</v>
+        <v>8.770157952708938e-49</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1.633533596767874e-36</v>
+        <v>8.509013662558676e-49</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.273476389316442e-36</v>
+        <v>7.4667722542067e-49</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.077277645748259e-36</v>
+        <v>6.734568572170037e-49</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.017087815043267e-36</v>
+        <v>6.168501809667263e-49</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.151956660356324e-36</v>
+        <v>5.49428671785173e-49</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.793861612233248e-36</v>
+        <v>4.949381466235511e-49</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2.051511624552603e-36</v>
+        <v>4.896002247759479e-49</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.036078103122636e-36</v>
+        <v>2.308660257403671e-49</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.928031131664731e-36</v>
+        <v>8.670326547916114e-50</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.876808983251404e-36</v>
+        <v>4.970682286066604e-50</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.850944509922561e-36</v>
+        <v>7.104956162311036e-50</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.555671281283395e-36</v>
+        <v>4.377346799241943e-50</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.356932918123936e-36</v>
+        <v>3.374246395545157e-50</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>6.658857219928632e-37</v>
+        <v>2.640107189346432e-50</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.75186332382777e-37</v>
+        <v>2.51269440236743e-50</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.579693459806879e-37</v>
+        <v>3.040760922681771e-50</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.154073704829479e-37</v>
+        <v>4.563419191932329e-50</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.305738712131149e-37</v>
+        <v>4.179414094411872e-50</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.337024567815848e-37</v>
+        <v>2.945185435132926e-50</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.72637796329617e-37</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.852112692748198e-37</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.705031935671203e-37</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.466473041603069e-37</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.179476791790306e-37</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.169159756287864e-37</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>9.388553723541062e-38</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>7.101380808555566e-38</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5.794387923064357e-38</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.374574175017356e-38</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.756850220171953e-38</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.488334123043174e-38</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.972529801285436e-38</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.898004632360745e-38</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.046889737113971e-38</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4.123507749011281e-38</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.132666622471858e-38</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.293142472854166e-38</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.315948660695571e-38</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.111124094238076e-38</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.730495824219344e-38</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.983162347149778e-38</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.917086231688182e-38</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.366667042054595e-38</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.201506114160403e-38</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.130276663489715e-38</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.504701780508525e-38</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.112640884286447e-38</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.023949103815183e-38</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.762244274255753e-38</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.578203781869814e-38</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.432396762354592e-38</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.279365651802743e-38</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.132685066321293e-38</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.109214795541014e-38</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.079320799143338e-39</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.856241185309495e-39</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.07883030752276e-39</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.509969038961012e-39</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>9.277571314633137e-40</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>7.178409319734759e-40</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>5.582953363394111e-40</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.291294750901971e-40</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.995758937259358e-40</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>8.762854473734424e-40</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>7.746017097402677e-40</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5.282433440267593e-40</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4.311306898535352e-40</v>
+        <v>2.43530279315484e-50</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>7.864904867058549e-42</v>
+        <v>4.115505110102194e-42</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>6.833552847203666e-42</v>
+        <v>4.239013087409067e-42</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>6.915222386329511e-42</v>
+        <v>4.934489280857657e-42</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>8.320714389489071e-42</v>
+        <v>6.873421314529754e-42</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>9.38595880476049e-42</v>
+        <v>8.431354675162274e-42</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.588198792531735e-41</v>
+        <v>1.456629058408453e-41</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220222826197681e-41</v>
+        <v>2.154523416694831e-41</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>5.422079186366336e-41</v>
+        <v>5.293713821696288e-41</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>7.913405887768119e-41</v>
+        <v>7.74770414092683e-41</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>7.220267042489437e-41</v>
+        <v>7.166484460902992e-41</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>4.959195867962283e-41</v>
+        <v>4.894368805453811e-41</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.190996752201395e-41</v>
+        <v>2.16975578085832e-41</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1.624507092981447e-41</v>
+        <v>1.576670794624586e-41</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1.980559219991075e-41</v>
+        <v>1.955640868926053e-41</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>8.50753120140322e-42</v>
+        <v>8.120391789153023e-42</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>5.719594758016029e-42</v>
+        <v>5.465584964868353e-42</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3.03828282664727e-42</v>
+        <v>2.628321855470459e-42</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.358515662408435e-42</v>
+        <v>1.098658303805973e-42</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.000047932942795e-42</v>
+        <v>8.033440528843553e-43</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>9.431638337000803e-43</v>
+        <v>7.164430451254411e-43</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.053968821080251e-42</v>
+        <v>8.958857512833792e-43</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.200038451107182e-42</v>
+        <v>1.138404148547975e-42</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.067108760376763e-42</v>
+        <v>8.984683689853304e-43</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.973478362127718e-42</v>
+        <v>1.711779199220393e-42</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>2.788120112173282e-42</v>
+        <v>2.469590510924379e-42</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>5.38509815146042e-42</v>
+        <v>5.335058966015866e-42</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>1.118595538427909e-41</v>
+        <v>1.111913529176432e-41</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>9.131030291204521e-42</v>
+        <v>9.014349245488686e-42</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>4.021413647357677e-42</v>
+        <v>3.997019198297343e-42</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.755197585570206e-42</v>
+        <v>1.693551221045462e-42</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>7.267408637592813e-43</v>
+        <v>6.955028908328544e-43</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>6.146550534070711e-43</v>
+        <v>5.848896018776916e-43</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.469641154973145e-43</v>
+        <v>3.567066395515512e-43</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>2.681838300183166e-43</v>
+        <v>2.057555823499072e-43</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.45774893287711e-43</v>
+        <v>1.430335480171108e-43</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.601385864321134e-43</v>
+        <v>1.549747854538616e-43</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2.809915575152753e-43</v>
+        <v>2.763118038418003e-43</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.272750503659919e-43</v>
+        <v>1.250903343643803e-43</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>4.700646493362643e-44</v>
+        <v>4.309636270153178e-44</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>3.49156114837818e-44</v>
+        <v>3.060839049006842e-44</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>2.119445712720845e-44</v>
+        <v>1.970283978956682e-44</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.756592752467032e-44</v>
+        <v>1.605865938517897e-44</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>2.208480504348821e-44</v>
+        <v>2.166397838266106e-44</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>4.512644693570156e-44</v>
+        <v>4.449030066393273e-44</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>4.72384213891294e-44</v>
+        <v>4.65787207656314e-44</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>4.448804783939158e-44</v>
+        <v>4.448301105191566e-44</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>4.137795103570371e-44</v>
+        <v>4.120270106287152e-44</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>3.301944343308253e-44</v>
+        <v>3.257330012582978e-44</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>2.431880704703978e-44</v>
+        <v>2.393311796880615e-44</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.517674858717142e-44</v>
+        <v>1.525784016550387e-44</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.153521017594839e-44</v>
+        <v>1.142834504306569e-44</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1.028882872976231e-44</v>
+        <v>1.040302221004867e-44</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>9.668782106721249e-45</v>
+        <v>9.513225183127607e-45</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>8.610946417036477e-45</v>
+        <v>8.257364872321419e-45</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>7.118072474282903e-45</v>
+        <v>6.850489239122658e-45</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.602911397231485e-45</v>
+        <v>5.521655661123561e-45</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>5.465245264677441e-45</v>
+        <v>5.38851286052692e-45</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>5.587187495166458e-45</v>
+        <v>5.588865044543975e-45</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>6.907193809755434e-45</v>
+        <v>6.943169828182407e-45</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>7.495070287286018e-45</v>
+        <v>7.526116348237084e-45</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>8.182336259687172e-45</v>
+        <v>8.203347816594396e-45</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>9.011810673342116e-45</v>
+        <v>9.053464879415862e-45</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>8.991584634468184e-45</v>
+        <v>9.006848111481972e-45</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>9.821804069087383e-45</v>
+        <v>9.831350064824542e-45</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>9.914807244145554e-45</v>
+        <v>9.967354569934371e-45</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>9.354323662845885e-45</v>
+        <v>9.383295804420731e-45</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>9.210645470070926e-45</v>
+        <v>9.3136066915717e-45</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>8.523991185087296e-45</v>
+        <v>8.545205810515117e-45</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>8.01844551478008e-45</v>
+        <v>8.073246421410736e-45</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>7.402934557753055e-45</v>
+        <v>7.437110168780947e-45</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>7.098406299322914e-45</v>
+        <v>7.111233634264256e-45</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>6.382705181606205e-45</v>
+        <v>6.44627074904771e-45</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>6.014911446716041e-45</v>
+        <v>6.037898159844472e-45</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>4.060288908971226e-45</v>
+        <v>4.094877715378583e-45</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>3.390366552371632e-45</v>
+        <v>3.3914665907499e-45</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>2.606100167298603e-45</v>
+        <v>2.614603535254155e-45</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.666300238995226e-45</v>
+        <v>1.676620174050619e-45</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.37208649232202e-45</v>
+        <v>1.379010728186953e-45</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.076811202117374e-45</v>
+        <v>1.079232935724106e-45</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>9.672891139781667e-46</v>
+        <v>9.715297437458206e-46</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>9.682926116193279e-46</v>
+        <v>9.70740727343401e-46</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>9.244464759033907e-46</v>
+        <v>9.274493840008353e-46</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>8.107701459139435e-46</v>
+        <v>8.125638338701698e-46</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>7.719605426720422e-46</v>
+        <v>7.730149155149797e-46</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>7.468986530263375e-46</v>
+        <v>7.474428230532776e-46</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>7.857408005135867e-46</v>
+        <v>7.88828502498254e-46</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>8.084011614935928e-46</v>
+        <v>8.084810119817978e-46</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>8.038455533998329e-46</v>
+        <v>8.033990033888271e-46</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>7.628788510929249e-46</v>
+        <v>7.631802221340756e-46</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>7.040780413949381e-46</v>
+        <v>7.062868951135714e-46</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>6.042231644337869e-46</v>
+        <v>6.038088374705882e-46</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>4.737351400242853e-46</v>
+        <v>4.761906233106995e-46</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>2.438312923313845e-46</v>
+        <v>2.453752219784951e-46</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.861952564867602e-46</v>
+        <v>1.881514089485818e-46</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.376396701357115e-46</v>
+        <v>1.383538757285897e-46</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>8.811035188852631e-47</v>
+        <v>8.861726283802103e-47</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>7.420416662446525e-47</v>
+        <v>7.431901446618463e-47</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>6.776127486345758e-47</v>
+        <v>6.778404896446411e-47</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>6.527701791875239e-47</v>
+        <v>6.489708831347739e-47</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>5.953217487918464e-47</v>
+        <v>5.913434318491255e-47</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>5.819883755696371e-47</v>
+        <v>5.824088574534738e-47</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>5.819294826617497e-47</v>
+        <v>5.777210570056086e-47</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>5.713364938100219e-47</v>
+        <v>5.721218612586524e-47</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>5.36444591409321e-47</v>
+        <v>5.413709494708272e-47</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>5.02628285471307e-47</v>
+        <v>5.003815255669475e-47</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>4.770388896900456e-47</v>
+        <v>4.761855778630004e-47</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>4.313168641389961e-47</v>
+        <v>4.290635822124272e-47</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>4.241948390659734e-47</v>
+        <v>4.205055841757115e-47</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>4.251675865965854e-47</v>
+        <v>4.246166804254119e-47</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>3.964600023029932e-47</v>
+        <v>3.905966175776004e-47</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>3.172445140755299e-47</v>
+        <v>3.144608073032245e-47</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>2.533401101718232e-47</v>
+        <v>2.544368299979515e-47</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>2.177254654095088e-47</v>
+        <v>2.177375123321818e-47</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>2.05787190706683e-47</v>
+        <v>2.085529880491191e-47</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>2.384498547689942e-47</v>
+        <v>2.375816265570973e-47</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>3.697208975604507e-47</v>
+        <v>3.680308589428203e-47</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>4.228976556086263e-47</v>
+        <v>4.232691504117335e-47</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>4.254218068537622e-47</v>
+        <v>4.242733308160303e-47</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>4.051321496569609e-47</v>
+        <v>4.046040397784602e-47</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>4.006557597426891e-47</v>
+        <v>4.003020221165188e-47</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>3.943906857103742e-47</v>
+        <v>3.958649310060284e-47</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>3.374843267572367e-47</v>
+        <v>3.393652495843461e-47</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.974692896826918e-47</v>
+        <v>2.994092905156495e-47</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.520927863745127e-47</v>
+        <v>1.523818096891736e-47</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>6.755761168106798e-48</v>
+        <v>6.812619037071307e-48</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>4.195416640162086e-48</v>
+        <v>4.197558572887657e-48</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>3.223239416033288e-48</v>
+        <v>3.249618998070457e-48</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>3.774952006088699e-48</v>
+        <v>3.775769707325468e-48</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>3.90447043072002e-48</v>
+        <v>3.895984206784107e-48</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>5.117241226738641e-48</v>
+        <v>5.091851702420658e-48</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>5.611628561402687e-48</v>
+        <v>5.703955411168624e-48</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>5.322687309063081e-48</v>
+        <v>5.330543742881556e-48</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>4.617203158101789e-48</v>
+        <v>4.622788919464157e-48</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>3.748064362569933e-48</v>
+        <v>3.743623593368347e-48</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>3.036985622401982e-48</v>
+        <v>3.024769744747888e-48</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>2.3392456661379e-48</v>
+        <v>2.373202219765851e-48</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1.959894827672349e-48</v>
+        <v>1.943365672756078e-48</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>1.855647546285665e-48</v>
+        <v>1.81907006658977e-48</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>1.625381125800867e-48</v>
+        <v>1.494354695053662e-48</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.55950727479841e-48</v>
+        <v>1.549418274438651e-48</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1.429583183414193e-48</v>
+        <v>1.434047594526036e-48</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.408792888976902e-48</v>
+        <v>1.358169295606342e-48</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.479520363233641e-48</v>
+        <v>1.465045676009802e-48</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.523135584811703e-48</v>
+        <v>1.516164049532778e-48</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.553709065727033e-48</v>
+        <v>1.547026816199189e-48</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.629706637351184e-48</v>
+        <v>1.626092291255401e-48</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.625855687496038e-48</v>
+        <v>1.628618592572687e-48</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.455155562089135e-48</v>
+        <v>1.451212841886164e-48</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.190578966324694e-48</v>
+        <v>1.194351300663795e-48</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.1660755892313e-48</v>
+        <v>1.170959708283285e-48</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>9.604787224514269e-49</v>
+        <v>9.671320240868474e-49</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>8.969179286540059e-49</v>
+        <v>8.992649171113582e-49</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>8.701695978092121e-49</v>
+        <v>8.736312845859758e-49</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.027491770674222e-48</v>
+        <v>1.033090761629779e-48</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>8.770157952708938e-49</v>
+        <v>8.790563767050715e-49</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>8.509013662558676e-49</v>
+        <v>8.554295445288743e-49</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>7.4667722542067e-49</v>
+        <v>7.497718587021938e-49</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>6.734568572170037e-49</v>
+        <v>6.764093828461829e-49</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>6.168501809667263e-49</v>
+        <v>6.173108593603872e-49</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>5.49428671785173e-49</v>
+        <v>5.532946298889192e-49</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>4.949381466235511e-49</v>
+        <v>4.971687420176488e-49</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>4.896002247759479e-49</v>
+        <v>4.926815944997304e-49</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.308660257403671e-49</v>
+        <v>2.321854025987823e-49</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>8.670326547916114e-50</v>
+        <v>8.927977565495456e-50</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>4.970682286066604e-50</v>
+        <v>5.078209459136932e-50</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>7.104956162311036e-50</v>
+        <v>7.226660685666975e-50</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>4.377346799241943e-50</v>
+        <v>4.51775248343125e-50</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>3.374246395545157e-50</v>
+        <v>3.504835965891748e-50</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.640107189346432e-50</v>
+        <v>2.733215591137728e-50</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.51269440236743e-50</v>
+        <v>2.299851388343408e-50</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>3.040760922681771e-50</v>
+        <v>3.064388087427368e-50</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>4.563419191932329e-50</v>
+        <v>4.53321935524848e-50</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>4.179414094411872e-50</v>
+        <v>4.220823722877616e-50</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>2.945185435132926e-50</v>
+        <v>2.994275458074014e-50</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>2.43530279315484e-50</v>
+        <v>2.484810375525769e-50</v>
       </c>
     </row>
   </sheetData>
